--- a/Code/Results/Cases/Case_3_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003314839096581</v>
+        <v>1.028410913570541</v>
       </c>
       <c r="D2">
-        <v>1.019086897338751</v>
+        <v>1.031890569828557</v>
       </c>
       <c r="E2">
-        <v>1.014969349976904</v>
+        <v>1.037913677981729</v>
       </c>
       <c r="F2">
-        <v>1.016225686038838</v>
+        <v>1.047886746308251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041897453777208</v>
+        <v>1.033590634667089</v>
       </c>
       <c r="J2">
-        <v>1.02539685392573</v>
+        <v>1.033563382985585</v>
       </c>
       <c r="K2">
-        <v>1.030286574551424</v>
+        <v>1.034697380732762</v>
       </c>
       <c r="L2">
-        <v>1.026224003979672</v>
+        <v>1.040703205692687</v>
       </c>
       <c r="M2">
-        <v>1.027463506333001</v>
+        <v>1.050648130421237</v>
       </c>
       <c r="N2">
-        <v>1.012402510464776</v>
+        <v>1.015205161976223</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006941293563611</v>
+        <v>1.029182016598456</v>
       </c>
       <c r="D3">
-        <v>1.021575586980965</v>
+        <v>1.032440308949029</v>
       </c>
       <c r="E3">
-        <v>1.018260094963741</v>
+        <v>1.038673012206232</v>
       </c>
       <c r="F3">
-        <v>1.020504362178618</v>
+        <v>1.048895550491063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042746345943611</v>
+        <v>1.033726371819864</v>
       </c>
       <c r="J3">
-        <v>1.027244504031618</v>
+        <v>1.03397599804757</v>
       </c>
       <c r="K3">
-        <v>1.031939650741568</v>
+        <v>1.035056471724849</v>
       </c>
       <c r="L3">
-        <v>1.028664546258706</v>
+        <v>1.041272579211842</v>
       </c>
       <c r="M3">
-        <v>1.030881439361875</v>
+        <v>1.051468359076404</v>
       </c>
       <c r="N3">
-        <v>1.013021390842092</v>
+        <v>1.015342669699636</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009246024541915</v>
+        <v>1.029681573192611</v>
       </c>
       <c r="D4">
-        <v>1.023160029028406</v>
+        <v>1.032796485322546</v>
       </c>
       <c r="E4">
-        <v>1.020356686588871</v>
+        <v>1.039165345577373</v>
       </c>
       <c r="F4">
-        <v>1.023230578475181</v>
+        <v>1.049549857184679</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043277547794504</v>
+        <v>1.033813274067905</v>
       </c>
       <c r="J4">
-        <v>1.028416137154983</v>
+        <v>1.034242907764914</v>
       </c>
       <c r="K4">
-        <v>1.032986743076091</v>
+        <v>1.035288578467382</v>
       </c>
       <c r="L4">
-        <v>1.030215478915564</v>
+        <v>1.041641331708275</v>
       </c>
       <c r="M4">
-        <v>1.033056488031931</v>
+        <v>1.052000031805813</v>
       </c>
       <c r="N4">
-        <v>1.013413755753856</v>
+        <v>1.015431593668862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010205211097711</v>
+        <v>1.029891728996561</v>
       </c>
       <c r="D5">
-        <v>1.023820076615745</v>
+        <v>1.032946329838063</v>
       </c>
       <c r="E5">
-        <v>1.021230485436749</v>
+        <v>1.039372558535341</v>
       </c>
       <c r="F5">
-        <v>1.024366870267296</v>
+        <v>1.049825295299053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043496604268096</v>
+        <v>1.033849584756563</v>
       </c>
       <c r="J5">
-        <v>1.028903100967534</v>
+        <v>1.034355096292545</v>
       </c>
       <c r="K5">
-        <v>1.033421656728512</v>
+        <v>1.03538609529812</v>
       </c>
       <c r="L5">
-        <v>1.030860905055094</v>
+        <v>1.041796432791197</v>
       </c>
       <c r="M5">
-        <v>1.03396238383084</v>
+        <v>1.052223768014074</v>
       </c>
       <c r="N5">
-        <v>1.013576812793916</v>
+        <v>1.015468964246566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010365700865052</v>
+        <v>1.02992702336907</v>
       </c>
       <c r="D6">
-        <v>1.023930550886083</v>
+        <v>1.03297149567121</v>
       </c>
       <c r="E6">
-        <v>1.02137676047074</v>
+        <v>1.039407364290051</v>
       </c>
       <c r="F6">
-        <v>1.024557092903551</v>
+        <v>1.049871564073288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043533136925591</v>
+        <v>1.033855668383786</v>
       </c>
       <c r="J6">
-        <v>1.028984540333499</v>
+        <v>1.034373932013416</v>
       </c>
       <c r="K6">
-        <v>1.033494374090832</v>
+        <v>1.035402465200318</v>
       </c>
       <c r="L6">
-        <v>1.030968893835927</v>
+        <v>1.041822479451094</v>
       </c>
       <c r="M6">
-        <v>1.034113997047833</v>
+        <v>1.052261347219525</v>
       </c>
       <c r="N6">
-        <v>1.013604081019942</v>
+        <v>1.015475238152505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009258879063883</v>
+        <v>1.029684380748154</v>
       </c>
       <c r="D7">
-        <v>1.0231688722006</v>
+        <v>1.032798487130291</v>
       </c>
       <c r="E7">
-        <v>1.020368391928483</v>
+        <v>1.039168113441967</v>
       </c>
       <c r="F7">
-        <v>1.023245799772319</v>
+        <v>1.049553536160154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043280491489295</v>
+        <v>1.033813760130238</v>
       </c>
       <c r="J7">
-        <v>1.028422665780711</v>
+        <v>1.034244406914861</v>
       </c>
       <c r="K7">
-        <v>1.032992575024359</v>
+        <v>1.035289881732626</v>
       </c>
       <c r="L7">
-        <v>1.03022412877584</v>
+        <v>1.041643403873651</v>
       </c>
       <c r="M7">
-        <v>1.033068625692447</v>
+        <v>1.052003020513675</v>
       </c>
       <c r="N7">
-        <v>1.013415941911567</v>
+        <v>1.015432093068212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004549256257183</v>
+        <v>1.028671385873204</v>
       </c>
       <c r="D8">
-        <v>1.019933418137983</v>
+        <v>1.032076260756982</v>
       </c>
       <c r="E8">
-        <v>1.016088393101474</v>
+        <v>1.038170091774345</v>
       </c>
       <c r="F8">
-        <v>1.017680664254134</v>
+        <v>1.048227355847264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042188128987555</v>
+        <v>1.033636699578599</v>
       </c>
       <c r="J8">
-        <v>1.02602631227882</v>
+        <v>1.033702843977756</v>
       </c>
       <c r="K8">
-        <v>1.03084998202809</v>
+        <v>1.034818788080378</v>
       </c>
       <c r="L8">
-        <v>1.027054759043146</v>
+        <v>1.040895559012319</v>
       </c>
       <c r="M8">
-        <v>1.028626349427872</v>
+        <v>1.050925136999394</v>
       </c>
       <c r="N8">
-        <v>1.012613366645587</v>
+        <v>1.01525164400906</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9959162508190471</v>
+        <v>1.026891043116869</v>
       </c>
       <c r="D9">
-        <v>1.014026672099851</v>
+        <v>1.030807194825246</v>
       </c>
       <c r="E9">
-        <v>1.0082849453969</v>
+        <v>1.036419137713559</v>
       </c>
       <c r="F9">
-        <v>1.007533920223812</v>
+        <v>1.045902353495902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040121431237374</v>
+        <v>1.033317612621942</v>
       </c>
       <c r="J9">
-        <v>1.021614045572231</v>
+        <v>1.032747983052324</v>
       </c>
       <c r="K9">
-        <v>1.026896202886417</v>
+        <v>1.033986805775386</v>
       </c>
       <c r="L9">
-        <v>1.021245020187465</v>
+        <v>1.039580348816103</v>
       </c>
       <c r="M9">
-        <v>1.02050593607691</v>
+        <v>1.049032963323709</v>
       </c>
       <c r="N9">
-        <v>1.011135075146357</v>
+        <v>1.014933285240007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9899161940214148</v>
+        <v>1.025707401980959</v>
       </c>
       <c r="D10">
-        <v>1.009940373179894</v>
+        <v>1.029963670059794</v>
       </c>
       <c r="E10">
-        <v>1.002890981848438</v>
+        <v>1.035257111423203</v>
       </c>
       <c r="F10">
-        <v>1.00051754113029</v>
+        <v>1.044360458209668</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03864344788799</v>
+        <v>1.033100165342757</v>
       </c>
       <c r="J10">
-        <v>1.018535684318457</v>
+        <v>1.032111106256426</v>
       </c>
       <c r="K10">
-        <v>1.024132440952417</v>
+        <v>1.033430975278765</v>
       </c>
       <c r="L10">
-        <v>1.017208234175237</v>
+        <v>1.038705366352384</v>
       </c>
       <c r="M10">
-        <v>1.014877457495263</v>
+        <v>1.047776449404648</v>
       </c>
       <c r="N10">
-        <v>1.010103431127138</v>
+        <v>1.014720813654076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872552726208993</v>
+        <v>1.025195666286411</v>
       </c>
       <c r="D11">
-        <v>1.008133299793864</v>
+        <v>1.029599034507575</v>
       </c>
       <c r="E11">
-        <v>1.000506123845618</v>
+        <v>1.034755215485144</v>
       </c>
       <c r="F11">
-        <v>0.9974141329401768</v>
+        <v>1.043694745900673</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037978548458962</v>
+        <v>1.033004896573398</v>
       </c>
       <c r="J11">
-        <v>1.017168029558886</v>
+        <v>1.03183527500429</v>
       </c>
       <c r="K11">
-        <v>1.022903446840655</v>
+        <v>1.033190030847708</v>
       </c>
       <c r="L11">
-        <v>1.015418501719978</v>
+        <v>1.038326939806344</v>
       </c>
       <c r="M11">
-        <v>1.012384980244229</v>
+        <v>1.047233556204585</v>
       </c>
       <c r="N11">
-        <v>1.009645053362769</v>
+        <v>1.014628761502957</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9862570103689223</v>
+        <v>1.02500570515121</v>
       </c>
       <c r="D12">
-        <v>1.007456190327782</v>
+        <v>1.029463687039066</v>
       </c>
       <c r="E12">
-        <v>0.9996125447553902</v>
+        <v>1.034568981506605</v>
       </c>
       <c r="F12">
-        <v>0.9962510846542684</v>
+        <v>1.043447763782221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037727725904019</v>
+        <v>1.032969343015447</v>
       </c>
       <c r="J12">
-        <v>1.016654605486957</v>
+        <v>1.031732811302365</v>
       </c>
       <c r="K12">
-        <v>1.022441922212168</v>
+        <v>1.033100494592498</v>
       </c>
       <c r="L12">
-        <v>1.014747171562616</v>
+        <v>1.038186443877881</v>
       </c>
       <c r="M12">
-        <v>1.011450462140739</v>
+        <v>1.04703208128909</v>
       </c>
       <c r="N12">
-        <v>1.009472972401769</v>
+        <v>1.014594562085234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.986471595234286</v>
+        <v>1.025046446987568</v>
       </c>
       <c r="D13">
-        <v>1.00760170245966</v>
+        <v>1.0294927152289</v>
       </c>
       <c r="E13">
-        <v>0.9998045762618372</v>
+        <v>1.034608920585563</v>
       </c>
       <c r="F13">
-        <v>0.9965010370690163</v>
+        <v>1.043500728993345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037781704133766</v>
+        <v>1.032976976897805</v>
       </c>
       <c r="J13">
-        <v>1.016764985162579</v>
+        <v>1.031754790442645</v>
       </c>
       <c r="K13">
-        <v>1.022541150942563</v>
+        <v>1.033119702157788</v>
       </c>
       <c r="L13">
-        <v>1.014891474740212</v>
+        <v>1.038216577606769</v>
       </c>
       <c r="M13">
-        <v>1.011651319722166</v>
+        <v>1.047075290179672</v>
       </c>
       <c r="N13">
-        <v>1.009509967767471</v>
+        <v>1.014601898292852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9871729600478764</v>
+        <v>1.025179961575546</v>
       </c>
       <c r="D14">
-        <v>1.008077451024502</v>
+        <v>1.029587844707092</v>
       </c>
       <c r="E14">
-        <v>1.000432420173426</v>
+        <v>1.034739817388339</v>
       </c>
       <c r="F14">
-        <v>0.9973182081928701</v>
+        <v>1.04367432429248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037957894540735</v>
+        <v>1.033001961097778</v>
       </c>
       <c r="J14">
-        <v>1.017125701463754</v>
+        <v>1.031826805472555</v>
       </c>
       <c r="K14">
-        <v>1.02286540054676</v>
+        <v>1.033182630536662</v>
       </c>
       <c r="L14">
-        <v>1.015363144450214</v>
+        <v>1.038315324962549</v>
       </c>
       <c r="M14">
-        <v>1.012307912528161</v>
+        <v>1.047216898547886</v>
       </c>
       <c r="N14">
-        <v>1.009630866599139</v>
+        <v>1.01462593471171</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9876037717855481</v>
+        <v>1.025262240312463</v>
       </c>
       <c r="D15">
-        <v>1.008369789187836</v>
+        <v>1.029646469683263</v>
       </c>
       <c r="E15">
-        <v>1.000818219878722</v>
+        <v>1.034820492794737</v>
       </c>
       <c r="F15">
-        <v>0.9978203134854945</v>
+        <v>1.043781320975683</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03806593795621</v>
+        <v>1.033017332645801</v>
       </c>
       <c r="J15">
-        <v>1.017347226739618</v>
+        <v>1.031871175326614</v>
       </c>
       <c r="K15">
-        <v>1.023064510671965</v>
+        <v>1.033221397687518</v>
       </c>
       <c r="L15">
-        <v>1.015652880357288</v>
+        <v>1.038376175592798</v>
       </c>
       <c r="M15">
-        <v>1.012711295962236</v>
+        <v>1.047304172011184</v>
       </c>
       <c r="N15">
-        <v>1.009705113283608</v>
+        <v>1.0146407434085</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9900914297983454</v>
+        <v>1.025741380963925</v>
       </c>
       <c r="D16">
-        <v>1.010059490231456</v>
+        <v>1.029987882860063</v>
       </c>
       <c r="E16">
-        <v>1.003048191118455</v>
+        <v>1.035290447500322</v>
       </c>
       <c r="F16">
-        <v>1.000722087068833</v>
+        <v>1.04440468034195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038687041156677</v>
+        <v>1.033106464631837</v>
       </c>
       <c r="J16">
-        <v>1.018625702875492</v>
+        <v>1.032129411121788</v>
       </c>
       <c r="K16">
-        <v>1.024213310805336</v>
+        <v>1.033446960463784</v>
       </c>
       <c r="L16">
-        <v>1.017326110148849</v>
+        <v>1.038730490808761</v>
       </c>
       <c r="M16">
-        <v>1.01504167678969</v>
+        <v>1.047812504560069</v>
       </c>
       <c r="N16">
-        <v>1.010133600754656</v>
+        <v>1.014726921825072</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9916347445775705</v>
+        <v>1.026042145663222</v>
       </c>
       <c r="D17">
-        <v>1.011109154904851</v>
+        <v>1.030202208602003</v>
       </c>
       <c r="E17">
-        <v>1.004433577397719</v>
+        <v>1.0355855787547</v>
       </c>
       <c r="F17">
-        <v>1.002524475509043</v>
+        <v>1.044796217493789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03906989800961</v>
+        <v>1.033162077352829</v>
       </c>
       <c r="J17">
-        <v>1.019418226629978</v>
+        <v>1.032291380579828</v>
       </c>
       <c r="K17">
-        <v>1.024925164347604</v>
+        <v>1.033588379638667</v>
       </c>
       <c r="L17">
-        <v>1.01836431395944</v>
+        <v>1.03895286397472</v>
       </c>
       <c r="M17">
-        <v>1.016488385837796</v>
+        <v>1.048131686736438</v>
       </c>
       <c r="N17">
-        <v>1.010399210109893</v>
+        <v>1.014780966048763</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9925288997493789</v>
+        <v>1.026217652604506</v>
       </c>
       <c r="D18">
-        <v>1.01171778661752</v>
+        <v>1.03032728051677</v>
       </c>
       <c r="E18">
-        <v>1.005236923085448</v>
+        <v>1.035757846149182</v>
       </c>
       <c r="F18">
-        <v>1.003569515726608</v>
+        <v>1.045024781406561</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039290814634298</v>
+        <v>1.033194407911288</v>
       </c>
       <c r="J18">
-        <v>1.019877158142756</v>
+        <v>1.032385848810967</v>
       </c>
       <c r="K18">
-        <v>1.025337275417272</v>
+        <v>1.033670841288454</v>
       </c>
       <c r="L18">
-        <v>1.018965868576805</v>
+        <v>1.039082613477426</v>
       </c>
       <c r="M18">
-        <v>1.017326917830286</v>
+        <v>1.048317974582888</v>
       </c>
       <c r="N18">
-        <v>1.010553014297696</v>
+        <v>1.014812484222715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9928327728219281</v>
+        <v>1.026277508769221</v>
       </c>
       <c r="D19">
-        <v>1.011924706820173</v>
+        <v>1.030369936816227</v>
       </c>
       <c r="E19">
-        <v>1.005510051478802</v>
+        <v>1.035816605571425</v>
       </c>
       <c r="F19">
-        <v>1.003924799877325</v>
+        <v>1.045102747442779</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039365737958717</v>
+        <v>1.033205413558831</v>
       </c>
       <c r="J19">
-        <v>1.020033082351057</v>
+        <v>1.032418059013023</v>
       </c>
       <c r="K19">
-        <v>1.025477273766557</v>
+        <v>1.033698954173119</v>
       </c>
       <c r="L19">
-        <v>1.01917031050478</v>
+        <v>1.039126861954159</v>
       </c>
       <c r="M19">
-        <v>1.017611946612878</v>
+        <v>1.0483815132582</v>
       </c>
       <c r="N19">
-        <v>1.010605269307013</v>
+        <v>1.014823230259619</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9914697887142949</v>
+        <v>1.02600986858545</v>
       </c>
       <c r="D20">
-        <v>1.010996911806649</v>
+        <v>1.030179207327704</v>
       </c>
       <c r="E20">
-        <v>1.004285429859036</v>
+        <v>1.035553901298</v>
       </c>
       <c r="F20">
-        <v>1.002331747553792</v>
+        <v>1.04475418991601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039029069796126</v>
+        <v>1.033156121738322</v>
       </c>
       <c r="J20">
-        <v>1.01933354262816</v>
+        <v>1.032274003382281</v>
       </c>
       <c r="K20">
-        <v>1.024849111181604</v>
+        <v>1.033573209355483</v>
       </c>
       <c r="L20">
-        <v>1.018253341390486</v>
+        <v>1.038929000980749</v>
       </c>
       <c r="M20">
-        <v>1.016333719534217</v>
+        <v>1.048097429676772</v>
       </c>
       <c r="N20">
-        <v>1.010370829181012</v>
+        <v>1.014775168119415</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9869667018709286</v>
+        <v>1.025140641522267</v>
       </c>
       <c r="D21">
-        <v>1.007937519136267</v>
+        <v>1.029559828825937</v>
       </c>
       <c r="E21">
-        <v>1.000247752180293</v>
+        <v>1.034701266213095</v>
       </c>
       <c r="F21">
-        <v>0.9970778602597582</v>
+        <v>1.043623196698619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037906117989821</v>
+        <v>1.032994608464296</v>
       </c>
       <c r="J21">
-        <v>1.017019630699632</v>
+        <v>1.031805599043673</v>
       </c>
       <c r="K21">
-        <v>1.022770057182343</v>
+        <v>1.03316410075784</v>
       </c>
       <c r="L21">
-        <v>1.015224432340651</v>
+        <v>1.038286244423885</v>
       </c>
       <c r="M21">
-        <v>1.012114805761223</v>
+        <v>1.047175193436429</v>
       </c>
       <c r="N21">
-        <v>1.009595315669336</v>
+        <v>1.014618856779258</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9840780506103328</v>
+        <v>1.02459482079765</v>
       </c>
       <c r="D22">
-        <v>1.005979808100843</v>
+        <v>1.029170948113745</v>
       </c>
       <c r="E22">
-        <v>0.9976641601287424</v>
+        <v>1.034166295469926</v>
       </c>
       <c r="F22">
-        <v>0.9937146472649534</v>
+        <v>1.042913792919853</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037177746347212</v>
+        <v>1.032892095701424</v>
       </c>
       <c r="J22">
-        <v>1.015533337342537</v>
+        <v>1.031511050741843</v>
       </c>
       <c r="K22">
-        <v>1.021433727359229</v>
+        <v>1.032906654264285</v>
       </c>
       <c r="L22">
-        <v>1.013282032919129</v>
+        <v>1.037882515130696</v>
       </c>
       <c r="M22">
-        <v>1.009411655061752</v>
+        <v>1.046596387952868</v>
       </c>
       <c r="N22">
-        <v>1.009097159680716</v>
+        <v>1.01452053648689</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.985614969918273</v>
+        <v>1.024884104041606</v>
       </c>
       <c r="D23">
-        <v>1.007020941710651</v>
+        <v>1.029377048665636</v>
       </c>
       <c r="E23">
-        <v>0.9990381496426239</v>
+        <v>1.034449787297332</v>
       </c>
       <c r="F23">
-        <v>0.9955034005419895</v>
+        <v>1.043289699859253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037566022926527</v>
+        <v>1.032946530709773</v>
       </c>
       <c r="J23">
-        <v>1.016324300779585</v>
+        <v>1.031667200120416</v>
       </c>
       <c r="K23">
-        <v>1.022144964384421</v>
+        <v>1.033043152316129</v>
       </c>
       <c r="L23">
-        <v>1.014315431169747</v>
+        <v>1.038096501531139</v>
       </c>
       <c r="M23">
-        <v>1.010849574808178</v>
+        <v>1.046903124455032</v>
       </c>
       <c r="N23">
-        <v>1.009362265543838</v>
+        <v>1.014572661686183</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9915443437849357</v>
+        <v>1.026024452973005</v>
       </c>
       <c r="D24">
-        <v>1.01104764080247</v>
+        <v>1.030189600430389</v>
       </c>
       <c r="E24">
-        <v>1.004352385937641</v>
+        <v>1.035568214599413</v>
       </c>
       <c r="F24">
-        <v>1.00241885233814</v>
+        <v>1.044773179792034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039047525709219</v>
+        <v>1.033158813156098</v>
       </c>
       <c r="J24">
-        <v>1.019371817972625</v>
+        <v>1.03228185540798</v>
       </c>
       <c r="K24">
-        <v>1.024883485904514</v>
+        <v>1.033580064233216</v>
       </c>
       <c r="L24">
-        <v>1.018303497497195</v>
+        <v>1.038939783507882</v>
       </c>
       <c r="M24">
-        <v>1.016403622957441</v>
+        <v>1.048112908614545</v>
       </c>
       <c r="N24">
-        <v>1.010383656761463</v>
+        <v>1.014777787969338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9981896820392527</v>
+        <v>1.027350738545401</v>
       </c>
       <c r="D25">
-        <v>1.015579086979562</v>
+        <v>1.031134842511985</v>
       </c>
       <c r="E25">
-        <v>1.010334896320743</v>
+        <v>1.036870879189538</v>
       </c>
       <c r="F25">
-        <v>1.010199723355471</v>
+        <v>1.046502001437841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040673009548026</v>
+        <v>1.033400939581163</v>
       </c>
       <c r="J25">
-        <v>1.022778124575742</v>
+        <v>1.032994896155773</v>
       </c>
       <c r="K25">
-        <v>1.027940277389471</v>
+        <v>1.034202105599257</v>
       </c>
       <c r="L25">
-        <v>1.022774867162519</v>
+        <v>1.039920046803025</v>
       </c>
       <c r="M25">
-        <v>1.02264173859682</v>
+        <v>1.049521272887373</v>
       </c>
       <c r="N25">
-        <v>1.011525143484999</v>
+        <v>1.015015631485208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028410913570541</v>
+        <v>1.003314839096581</v>
       </c>
       <c r="D2">
-        <v>1.031890569828557</v>
+        <v>1.019086897338751</v>
       </c>
       <c r="E2">
-        <v>1.037913677981729</v>
+        <v>1.014969349976903</v>
       </c>
       <c r="F2">
-        <v>1.047886746308251</v>
+        <v>1.016225686038837</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033590634667089</v>
+        <v>1.041897453777208</v>
       </c>
       <c r="J2">
-        <v>1.033563382985585</v>
+        <v>1.025396853925729</v>
       </c>
       <c r="K2">
-        <v>1.034697380732762</v>
+        <v>1.030286574551423</v>
       </c>
       <c r="L2">
-        <v>1.040703205692687</v>
+        <v>1.026224003979671</v>
       </c>
       <c r="M2">
-        <v>1.050648130421237</v>
+        <v>1.027463506333</v>
       </c>
       <c r="N2">
-        <v>1.015205161976223</v>
+        <v>1.012402510464776</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029182016598456</v>
+        <v>1.00694129356361</v>
       </c>
       <c r="D3">
-        <v>1.032440308949029</v>
+        <v>1.021575586980965</v>
       </c>
       <c r="E3">
-        <v>1.038673012206232</v>
+        <v>1.018260094963741</v>
       </c>
       <c r="F3">
-        <v>1.048895550491063</v>
+        <v>1.020504362178618</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033726371819864</v>
+        <v>1.042746345943611</v>
       </c>
       <c r="J3">
-        <v>1.03397599804757</v>
+        <v>1.027244504031618</v>
       </c>
       <c r="K3">
-        <v>1.035056471724849</v>
+        <v>1.031939650741568</v>
       </c>
       <c r="L3">
-        <v>1.041272579211842</v>
+        <v>1.028664546258705</v>
       </c>
       <c r="M3">
-        <v>1.051468359076404</v>
+        <v>1.030881439361875</v>
       </c>
       <c r="N3">
-        <v>1.015342669699636</v>
+        <v>1.013021390842092</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029681573192611</v>
+        <v>1.009246024541914</v>
       </c>
       <c r="D4">
-        <v>1.032796485322546</v>
+        <v>1.023160029028406</v>
       </c>
       <c r="E4">
-        <v>1.039165345577373</v>
+        <v>1.02035668658887</v>
       </c>
       <c r="F4">
-        <v>1.049549857184679</v>
+        <v>1.023230578475181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033813274067905</v>
+        <v>1.043277547794504</v>
       </c>
       <c r="J4">
-        <v>1.034242907764914</v>
+        <v>1.028416137154982</v>
       </c>
       <c r="K4">
-        <v>1.035288578467382</v>
+        <v>1.032986743076091</v>
       </c>
       <c r="L4">
-        <v>1.041641331708275</v>
+        <v>1.030215478915564</v>
       </c>
       <c r="M4">
-        <v>1.052000031805813</v>
+        <v>1.03305648803193</v>
       </c>
       <c r="N4">
-        <v>1.015431593668862</v>
+        <v>1.013413755753856</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029891728996561</v>
+        <v>1.010205211097711</v>
       </c>
       <c r="D5">
-        <v>1.032946329838063</v>
+        <v>1.023820076615745</v>
       </c>
       <c r="E5">
-        <v>1.039372558535341</v>
+        <v>1.021230485436749</v>
       </c>
       <c r="F5">
-        <v>1.049825295299053</v>
+        <v>1.024366870267296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033849584756563</v>
+        <v>1.043496604268096</v>
       </c>
       <c r="J5">
-        <v>1.034355096292545</v>
+        <v>1.028903100967534</v>
       </c>
       <c r="K5">
-        <v>1.03538609529812</v>
+        <v>1.033421656728512</v>
       </c>
       <c r="L5">
-        <v>1.041796432791197</v>
+        <v>1.030860905055095</v>
       </c>
       <c r="M5">
-        <v>1.052223768014074</v>
+        <v>1.03396238383084</v>
       </c>
       <c r="N5">
-        <v>1.015468964246566</v>
+        <v>1.013576812793916</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02992702336907</v>
+        <v>1.010365700865053</v>
       </c>
       <c r="D6">
-        <v>1.03297149567121</v>
+        <v>1.023930550886083</v>
       </c>
       <c r="E6">
-        <v>1.039407364290051</v>
+        <v>1.02137676047074</v>
       </c>
       <c r="F6">
-        <v>1.049871564073288</v>
+        <v>1.024557092903551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033855668383786</v>
+        <v>1.043533136925591</v>
       </c>
       <c r="J6">
-        <v>1.034373932013416</v>
+        <v>1.028984540333499</v>
       </c>
       <c r="K6">
-        <v>1.035402465200318</v>
+        <v>1.033494374090832</v>
       </c>
       <c r="L6">
-        <v>1.041822479451094</v>
+        <v>1.030968893835927</v>
       </c>
       <c r="M6">
-        <v>1.052261347219525</v>
+        <v>1.034113997047833</v>
       </c>
       <c r="N6">
-        <v>1.015475238152505</v>
+        <v>1.013604081019942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029684380748154</v>
+        <v>1.009258879063883</v>
       </c>
       <c r="D7">
-        <v>1.032798487130291</v>
+        <v>1.0231688722006</v>
       </c>
       <c r="E7">
-        <v>1.039168113441967</v>
+        <v>1.020368391928482</v>
       </c>
       <c r="F7">
-        <v>1.049553536160154</v>
+        <v>1.023245799772318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033813760130238</v>
+        <v>1.043280491489295</v>
       </c>
       <c r="J7">
-        <v>1.034244406914861</v>
+        <v>1.02842266578071</v>
       </c>
       <c r="K7">
-        <v>1.035289881732626</v>
+        <v>1.032992575024358</v>
       </c>
       <c r="L7">
-        <v>1.041643403873651</v>
+        <v>1.030224128775838</v>
       </c>
       <c r="M7">
-        <v>1.052003020513675</v>
+        <v>1.033068625692445</v>
       </c>
       <c r="N7">
-        <v>1.015432093068212</v>
+        <v>1.013415941911566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028671385873204</v>
+        <v>1.004549256257183</v>
       </c>
       <c r="D8">
-        <v>1.032076260756982</v>
+        <v>1.019933418137983</v>
       </c>
       <c r="E8">
-        <v>1.038170091774345</v>
+        <v>1.016088393101474</v>
       </c>
       <c r="F8">
-        <v>1.048227355847264</v>
+        <v>1.017680664254134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033636699578599</v>
+        <v>1.042188128987555</v>
       </c>
       <c r="J8">
-        <v>1.033702843977756</v>
+        <v>1.02602631227882</v>
       </c>
       <c r="K8">
-        <v>1.034818788080378</v>
+        <v>1.03084998202809</v>
       </c>
       <c r="L8">
-        <v>1.040895559012319</v>
+        <v>1.027054759043146</v>
       </c>
       <c r="M8">
-        <v>1.050925136999394</v>
+        <v>1.028626349427872</v>
       </c>
       <c r="N8">
-        <v>1.01525164400906</v>
+        <v>1.012613366645587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026891043116869</v>
+        <v>0.9959162508190468</v>
       </c>
       <c r="D9">
-        <v>1.030807194825246</v>
+        <v>1.014026672099851</v>
       </c>
       <c r="E9">
-        <v>1.036419137713559</v>
+        <v>1.008284945396899</v>
       </c>
       <c r="F9">
-        <v>1.045902353495902</v>
+        <v>1.007533920223812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033317612621942</v>
+        <v>1.040121431237374</v>
       </c>
       <c r="J9">
-        <v>1.032747983052324</v>
+        <v>1.021614045572231</v>
       </c>
       <c r="K9">
-        <v>1.033986805775386</v>
+        <v>1.026896202886417</v>
       </c>
       <c r="L9">
-        <v>1.039580348816103</v>
+        <v>1.021245020187465</v>
       </c>
       <c r="M9">
-        <v>1.049032963323709</v>
+        <v>1.02050593607691</v>
       </c>
       <c r="N9">
-        <v>1.014933285240007</v>
+        <v>1.011135075146357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025707401980959</v>
+        <v>0.9899161940214145</v>
       </c>
       <c r="D10">
-        <v>1.029963670059794</v>
+        <v>1.009940373179894</v>
       </c>
       <c r="E10">
-        <v>1.035257111423203</v>
+        <v>1.002890981848437</v>
       </c>
       <c r="F10">
-        <v>1.044360458209668</v>
+        <v>1.00051754113029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033100165342757</v>
+        <v>1.03864344788799</v>
       </c>
       <c r="J10">
-        <v>1.032111106256426</v>
+        <v>1.018535684318456</v>
       </c>
       <c r="K10">
-        <v>1.033430975278765</v>
+        <v>1.024132440952416</v>
       </c>
       <c r="L10">
-        <v>1.038705366352384</v>
+        <v>1.017208234175236</v>
       </c>
       <c r="M10">
-        <v>1.047776449404648</v>
+        <v>1.014877457495263</v>
       </c>
       <c r="N10">
-        <v>1.014720813654076</v>
+        <v>1.010103431127137</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025195666286411</v>
+        <v>0.9872552726208993</v>
       </c>
       <c r="D11">
-        <v>1.029599034507575</v>
+        <v>1.008133299793864</v>
       </c>
       <c r="E11">
-        <v>1.034755215485144</v>
+        <v>1.000506123845618</v>
       </c>
       <c r="F11">
-        <v>1.043694745900673</v>
+        <v>0.9974141329401771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033004896573398</v>
+        <v>1.037978548458962</v>
       </c>
       <c r="J11">
-        <v>1.03183527500429</v>
+        <v>1.017168029558886</v>
       </c>
       <c r="K11">
-        <v>1.033190030847708</v>
+        <v>1.022903446840654</v>
       </c>
       <c r="L11">
-        <v>1.038326939806344</v>
+        <v>1.015418501719978</v>
       </c>
       <c r="M11">
-        <v>1.047233556204585</v>
+        <v>1.012384980244229</v>
       </c>
       <c r="N11">
-        <v>1.014628761502957</v>
+        <v>1.009645053362769</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02500570515121</v>
+        <v>0.986257010368922</v>
       </c>
       <c r="D12">
-        <v>1.029463687039066</v>
+        <v>1.007456190327782</v>
       </c>
       <c r="E12">
-        <v>1.034568981506605</v>
+        <v>0.9996125447553894</v>
       </c>
       <c r="F12">
-        <v>1.043447763782221</v>
+        <v>0.9962510846542679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032969343015447</v>
+        <v>1.037727725904019</v>
       </c>
       <c r="J12">
-        <v>1.031732811302365</v>
+        <v>1.016654605486957</v>
       </c>
       <c r="K12">
-        <v>1.033100494592498</v>
+        <v>1.022441922212168</v>
       </c>
       <c r="L12">
-        <v>1.038186443877881</v>
+        <v>1.014747171562616</v>
       </c>
       <c r="M12">
-        <v>1.04703208128909</v>
+        <v>1.011450462140739</v>
       </c>
       <c r="N12">
-        <v>1.014594562085234</v>
+        <v>1.009472972401769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025046446987568</v>
+        <v>0.9864715952342855</v>
       </c>
       <c r="D13">
-        <v>1.0294927152289</v>
+        <v>1.00760170245966</v>
       </c>
       <c r="E13">
-        <v>1.034608920585563</v>
+        <v>0.9998045762618367</v>
       </c>
       <c r="F13">
-        <v>1.043500728993345</v>
+        <v>0.9965010370690158</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032976976897805</v>
+        <v>1.037781704133765</v>
       </c>
       <c r="J13">
-        <v>1.031754790442645</v>
+        <v>1.016764985162578</v>
       </c>
       <c r="K13">
-        <v>1.033119702157788</v>
+        <v>1.022541150942563</v>
       </c>
       <c r="L13">
-        <v>1.038216577606769</v>
+        <v>1.014891474740212</v>
       </c>
       <c r="M13">
-        <v>1.047075290179672</v>
+        <v>1.011651319722166</v>
       </c>
       <c r="N13">
-        <v>1.014601898292852</v>
+        <v>1.00950996776747</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025179961575546</v>
+        <v>0.9871729600478767</v>
       </c>
       <c r="D14">
-        <v>1.029587844707092</v>
+        <v>1.008077451024503</v>
       </c>
       <c r="E14">
-        <v>1.034739817388339</v>
+        <v>1.000432420173426</v>
       </c>
       <c r="F14">
-        <v>1.04367432429248</v>
+        <v>0.9973182081928702</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033001961097778</v>
+        <v>1.037957894540736</v>
       </c>
       <c r="J14">
-        <v>1.031826805472555</v>
+        <v>1.017125701463754</v>
       </c>
       <c r="K14">
-        <v>1.033182630536662</v>
+        <v>1.02286540054676</v>
       </c>
       <c r="L14">
-        <v>1.038315324962549</v>
+        <v>1.015363144450214</v>
       </c>
       <c r="M14">
-        <v>1.047216898547886</v>
+        <v>1.012307912528161</v>
       </c>
       <c r="N14">
-        <v>1.01462593471171</v>
+        <v>1.009630866599139</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025262240312463</v>
+        <v>0.9876037717855478</v>
       </c>
       <c r="D15">
-        <v>1.029646469683263</v>
+        <v>1.008369789187836</v>
       </c>
       <c r="E15">
-        <v>1.034820492794737</v>
+        <v>1.000818219878722</v>
       </c>
       <c r="F15">
-        <v>1.043781320975683</v>
+        <v>0.9978203134854944</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033017332645801</v>
+        <v>1.03806593795621</v>
       </c>
       <c r="J15">
-        <v>1.031871175326614</v>
+        <v>1.017347226739618</v>
       </c>
       <c r="K15">
-        <v>1.033221397687518</v>
+        <v>1.023064510671964</v>
       </c>
       <c r="L15">
-        <v>1.038376175592798</v>
+        <v>1.015652880357288</v>
       </c>
       <c r="M15">
-        <v>1.047304172011184</v>
+        <v>1.012711295962236</v>
       </c>
       <c r="N15">
-        <v>1.0146407434085</v>
+        <v>1.009705113283608</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025741380963925</v>
+        <v>0.990091429798345</v>
       </c>
       <c r="D16">
-        <v>1.029987882860063</v>
+        <v>1.010059490231455</v>
       </c>
       <c r="E16">
-        <v>1.035290447500322</v>
+        <v>1.003048191118455</v>
       </c>
       <c r="F16">
-        <v>1.04440468034195</v>
+        <v>1.000722087068832</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033106464631837</v>
+        <v>1.038687041156677</v>
       </c>
       <c r="J16">
-        <v>1.032129411121788</v>
+        <v>1.018625702875492</v>
       </c>
       <c r="K16">
-        <v>1.033446960463784</v>
+        <v>1.024213310805336</v>
       </c>
       <c r="L16">
-        <v>1.038730490808761</v>
+        <v>1.017326110148848</v>
       </c>
       <c r="M16">
-        <v>1.047812504560069</v>
+        <v>1.015041676789689</v>
       </c>
       <c r="N16">
-        <v>1.014726921825072</v>
+        <v>1.010133600754656</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026042145663222</v>
+        <v>0.9916347445775708</v>
       </c>
       <c r="D17">
-        <v>1.030202208602003</v>
+        <v>1.011109154904852</v>
       </c>
       <c r="E17">
-        <v>1.0355855787547</v>
+        <v>1.004433577397719</v>
       </c>
       <c r="F17">
-        <v>1.044796217493789</v>
+        <v>1.002524475509044</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033162077352829</v>
+        <v>1.03906989800961</v>
       </c>
       <c r="J17">
-        <v>1.032291380579828</v>
+        <v>1.019418226629978</v>
       </c>
       <c r="K17">
-        <v>1.033588379638667</v>
+        <v>1.024925164347605</v>
       </c>
       <c r="L17">
-        <v>1.03895286397472</v>
+        <v>1.01836431395944</v>
       </c>
       <c r="M17">
-        <v>1.048131686736438</v>
+        <v>1.016488385837796</v>
       </c>
       <c r="N17">
-        <v>1.014780966048763</v>
+        <v>1.010399210109893</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026217652604506</v>
+        <v>0.9925288997493789</v>
       </c>
       <c r="D18">
-        <v>1.03032728051677</v>
+        <v>1.01171778661752</v>
       </c>
       <c r="E18">
-        <v>1.035757846149182</v>
+        <v>1.005236923085448</v>
       </c>
       <c r="F18">
-        <v>1.045024781406561</v>
+        <v>1.003569515726609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033194407911288</v>
+        <v>1.039290814634298</v>
       </c>
       <c r="J18">
-        <v>1.032385848810967</v>
+        <v>1.019877158142756</v>
       </c>
       <c r="K18">
-        <v>1.033670841288454</v>
+        <v>1.025337275417273</v>
       </c>
       <c r="L18">
-        <v>1.039082613477426</v>
+        <v>1.018965868576805</v>
       </c>
       <c r="M18">
-        <v>1.048317974582888</v>
+        <v>1.017326917830286</v>
       </c>
       <c r="N18">
-        <v>1.014812484222715</v>
+        <v>1.010553014297696</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026277508769221</v>
+        <v>0.9928327728219273</v>
       </c>
       <c r="D19">
-        <v>1.030369936816227</v>
+        <v>1.011924706820172</v>
       </c>
       <c r="E19">
-        <v>1.035816605571425</v>
+        <v>1.005510051478801</v>
       </c>
       <c r="F19">
-        <v>1.045102747442779</v>
+        <v>1.003924799877324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033205413558831</v>
+        <v>1.039365737958717</v>
       </c>
       <c r="J19">
-        <v>1.032418059013023</v>
+        <v>1.020033082351057</v>
       </c>
       <c r="K19">
-        <v>1.033698954173119</v>
+        <v>1.025477273766556</v>
       </c>
       <c r="L19">
-        <v>1.039126861954159</v>
+        <v>1.019170310504779</v>
       </c>
       <c r="M19">
-        <v>1.0483815132582</v>
+        <v>1.017611946612877</v>
       </c>
       <c r="N19">
-        <v>1.014823230259619</v>
+        <v>1.010605269307013</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02600986858545</v>
+        <v>0.9914697887142941</v>
       </c>
       <c r="D20">
-        <v>1.030179207327704</v>
+        <v>1.010996911806648</v>
       </c>
       <c r="E20">
-        <v>1.035553901298</v>
+        <v>1.004285429859036</v>
       </c>
       <c r="F20">
-        <v>1.04475418991601</v>
+        <v>1.002331747553791</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033156121738322</v>
+        <v>1.039029069796126</v>
       </c>
       <c r="J20">
-        <v>1.032274003382281</v>
+        <v>1.01933354262816</v>
       </c>
       <c r="K20">
-        <v>1.033573209355483</v>
+        <v>1.024849111181603</v>
       </c>
       <c r="L20">
-        <v>1.038929000980749</v>
+        <v>1.018253341390486</v>
       </c>
       <c r="M20">
-        <v>1.048097429676772</v>
+        <v>1.016333719534215</v>
       </c>
       <c r="N20">
-        <v>1.014775168119415</v>
+        <v>1.010370829181011</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025140641522267</v>
+        <v>0.9869667018709288</v>
       </c>
       <c r="D21">
-        <v>1.029559828825937</v>
+        <v>1.007937519136267</v>
       </c>
       <c r="E21">
-        <v>1.034701266213095</v>
+        <v>1.000247752180294</v>
       </c>
       <c r="F21">
-        <v>1.043623196698619</v>
+        <v>0.9970778602597583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032994608464296</v>
+        <v>1.037906117989821</v>
       </c>
       <c r="J21">
-        <v>1.031805599043673</v>
+        <v>1.017019630699633</v>
       </c>
       <c r="K21">
-        <v>1.03316410075784</v>
+        <v>1.022770057182343</v>
       </c>
       <c r="L21">
-        <v>1.038286244423885</v>
+        <v>1.015224432340651</v>
       </c>
       <c r="M21">
-        <v>1.047175193436429</v>
+        <v>1.012114805761223</v>
       </c>
       <c r="N21">
-        <v>1.014618856779258</v>
+        <v>1.009595315669337</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02459482079765</v>
+        <v>0.9840780506103332</v>
       </c>
       <c r="D22">
-        <v>1.029170948113745</v>
+        <v>1.005979808100844</v>
       </c>
       <c r="E22">
-        <v>1.034166295469926</v>
+        <v>0.9976641601287428</v>
       </c>
       <c r="F22">
-        <v>1.042913792919853</v>
+        <v>0.9937146472649538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032892095701424</v>
+        <v>1.037177746347212</v>
       </c>
       <c r="J22">
-        <v>1.031511050741843</v>
+        <v>1.015533337342537</v>
       </c>
       <c r="K22">
-        <v>1.032906654264285</v>
+        <v>1.021433727359229</v>
       </c>
       <c r="L22">
-        <v>1.037882515130696</v>
+        <v>1.013282032919129</v>
       </c>
       <c r="M22">
-        <v>1.046596387952868</v>
+        <v>1.009411655061752</v>
       </c>
       <c r="N22">
-        <v>1.01452053648689</v>
+        <v>1.009097159680716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024884104041606</v>
+        <v>0.9856149699182729</v>
       </c>
       <c r="D23">
-        <v>1.029377048665636</v>
+        <v>1.007020941710651</v>
       </c>
       <c r="E23">
-        <v>1.034449787297332</v>
+        <v>0.9990381496426235</v>
       </c>
       <c r="F23">
-        <v>1.043289699859253</v>
+        <v>0.9955034005419889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032946530709773</v>
+        <v>1.037566022926527</v>
       </c>
       <c r="J23">
-        <v>1.031667200120416</v>
+        <v>1.016324300779585</v>
       </c>
       <c r="K23">
-        <v>1.033043152316129</v>
+        <v>1.022144964384421</v>
       </c>
       <c r="L23">
-        <v>1.038096501531139</v>
+        <v>1.014315431169747</v>
       </c>
       <c r="M23">
-        <v>1.046903124455032</v>
+        <v>1.010849574808177</v>
       </c>
       <c r="N23">
-        <v>1.014572661686183</v>
+        <v>1.009362265543838</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026024452973005</v>
+        <v>0.9915443437849363</v>
       </c>
       <c r="D24">
-        <v>1.030189600430389</v>
+        <v>1.01104764080247</v>
       </c>
       <c r="E24">
-        <v>1.035568214599413</v>
+        <v>1.004352385937642</v>
       </c>
       <c r="F24">
-        <v>1.044773179792034</v>
+        <v>1.00241885233814</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033158813156098</v>
+        <v>1.039047525709219</v>
       </c>
       <c r="J24">
-        <v>1.03228185540798</v>
+        <v>1.019371817972625</v>
       </c>
       <c r="K24">
-        <v>1.033580064233216</v>
+        <v>1.024883485904514</v>
       </c>
       <c r="L24">
-        <v>1.038939783507882</v>
+        <v>1.018303497497195</v>
       </c>
       <c r="M24">
-        <v>1.048112908614545</v>
+        <v>1.016403622957441</v>
       </c>
       <c r="N24">
-        <v>1.014777787969338</v>
+        <v>1.010383656761463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027350738545401</v>
+        <v>0.9981896820392516</v>
       </c>
       <c r="D25">
-        <v>1.031134842511985</v>
+        <v>1.015579086979561</v>
       </c>
       <c r="E25">
-        <v>1.036870879189538</v>
+        <v>1.010334896320741</v>
       </c>
       <c r="F25">
-        <v>1.046502001437841</v>
+        <v>1.01019972335547</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033400939581163</v>
+        <v>1.040673009548025</v>
       </c>
       <c r="J25">
-        <v>1.032994896155773</v>
+        <v>1.022778124575741</v>
       </c>
       <c r="K25">
-        <v>1.034202105599257</v>
+        <v>1.02794027738947</v>
       </c>
       <c r="L25">
-        <v>1.039920046803025</v>
+        <v>1.022774867162518</v>
       </c>
       <c r="M25">
-        <v>1.049521272887373</v>
+        <v>1.022641738596819</v>
       </c>
       <c r="N25">
-        <v>1.015015631485208</v>
+        <v>1.011525143484999</v>
       </c>
     </row>
   </sheetData>
